--- a/dtpu_configurations/only_integer32/50mhz/mxu_7x7/utilization.xlsx
+++ b/dtpu_configurations/only_integer32/50mhz/mxu_7x7/utilization.xlsx
@@ -154,19 +154,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>19.037593841552734</v>
+        <v>28.770675659179688</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>5.620689868927002</v>
+        <v>6.42528772354126</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>13.003759384155273</v>
+        <v>20.57988739013672</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>52.142860412597656</v>
+        <v>57.85714340209961</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>19.09090805053711</v>
+        <v>66.81818389892578</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>8.0</v>
